--- a/biology/Histoire de la zoologie et de la botanique/Marie_Rouault/Marie_Rouault.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Marie_Rouault/Marie_Rouault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie Rouault (né le 18 mars 1813 à Rennes et mort le 16 décembre 1881 à Rennes) est un paléontologue français. Il est le premier directeur du musée géologique de Rennes.
 </t>
@@ -513,24 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Mathurin-Marie Rouault[1] est né à Rennes en 1813. À la suite de la disette de 1823, il est retiré de l’école des Frères ignorantins. Il est alors gagé comme pâtre[2]. Rapidement congédié par le fermier, il devient « garçon à tout faire » chez son oncle, perruquier. Apprenti par la suite, il effectue un tour de France.
-Perruquier
-Revenu à Rennes en 1831, il est coiffeur, et commence à suivre les cours du soir. Il attira ainsi l’attention de divers professeurs de la ville[3]. Refusant  une proposition de poste aux Ponts et Chaussées, il hérite à la mort de sa grand-mère d'une boutique de barbier, rue du Champ-Dolent.
-Paléontologue
-Il décide en 1836, de faire un séjour à Paris comme perruquier. Il fréquente surtout le Jardin des Plantes et l'École des mines de Paris[4]. Rappelé d’urgence par une lettre de sa mère, il retrouve ses affaires en mauvais état. Il redresse sa boutique tout en continuant à étudier le sous-sol du département, et augmenter sa collection[5]. 
-En 1840, la création de la faculté des sciences de Rennes attire plusieurs professeurs qui accueillent Rouault avec bienveillance[6]. La renommée de Rouault s'étend et les visites plus ou moins désintéressées de sa collection augmente[7].
-À partir de la fin de 1845 la situation se dégrade. Il tombe malade. Les exploitants des carrières qu’il avait explorées lui apprennent que les visites se font de plus en plus fréquentes et que certaines personnes sont sur les traces de ses découvertes. Rouault rédige alors un mémoire adressé à Félix Dujardin. Il est communiqué à la Société philomathique de Paris, qui en publie quelques extraits. Néanmoins, la Société géologique de France, à laquelle le mémoire avait été soumis, conseille à Rouault de se dessaisir de la propriété de ses découvertes au profit de personnes aptes à les utiliser.
-Notoriété
-En 1846, il est aidé par le général de Tournemine, alors en garnison à Rennes. En quelques mois, il va passer du statut de barbier jusqu'à l'Institut de France. En 1847, Rouault rejoint Paris où le général le conduit dans tous les endroits qui comptent[8]. Il rencontre aussi François Arago[9]. Via son protecteur, Rouault est inscrit à l’ordre du jour des séances de l’Académie. Le 18 décembre 1846, il lit son mémoire dans la salle des séances de l’Institut de France. Peu de temps après, il est reçu par acclamations à la Société géologique de France.
-Rouault atteint alors une renommée internationale, mais il est ruiné financièrement[10]. Les problèmes matériels sont partiellement réglés en 1847, quand il devient pensionnaire de la ville de Rennes[11].
-Il reste alors quatre ans à Paris. En 1848, Rouault publie un second mémoire consacré à l’étude de Ogygia Brongniarti[12]. À plusieurs reprises, de 1846 à 1848, la valeur de ses travaux est reconnue par l'Académie des sciences[13].
-Musée géologique de Rennes
-En février 1853, il fait don de ses collections à la ville de Rennes[14]. En mars 1853, le Musée géologique de Rennes est créé[15]. Rouault en est le directeur[16].
-À partir de 1853, ses publications se font de plus en plus rares. En 1855, l'Académie des sciences lui attribue une subvention de 2000 francs[17]. Il entre en conflit avec la ville de Rennes à partir de 1875 sur sa gestion du Musée géologique de Rennes.
-Malgré ses problèmes locaux, sa renommée internationale reste intacte. En septembre 1878, à l’issue du Congrès international de géologie de Paris, un document[18], signé par trente géologues[19] demande que des moyens soient dégagés pour permettre au conservateur et fondateur du Musée géologique de la ville de Rennes de poursuivre ses recherches.
-Marie Rouault tombe malade en 1879, et meurt en 1881. 
-Une rue porte son nom à Rennes[20]. Une des salles de géologie de l'Université de Rennes porte son nom.
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mathurin-Marie Rouault est né à Rennes en 1813. À la suite de la disette de 1823, il est retiré de l’école des Frères ignorantins. Il est alors gagé comme pâtre. Rapidement congédié par le fermier, il devient « garçon à tout faire » chez son oncle, perruquier. Apprenti par la suite, il effectue un tour de France.
 </t>
         </is>
       </c>
@@ -556,10 +557,168 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Perruquier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Revenu à Rennes en 1831, il est coiffeur, et commence à suivre les cours du soir. Il attira ainsi l’attention de divers professeurs de la ville. Refusant  une proposition de poste aux Ponts et Chaussées, il hérite à la mort de sa grand-mère d'une boutique de barbier, rue du Champ-Dolent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marie_Rouault</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Rouault</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Paléontologue</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il décide en 1836, de faire un séjour à Paris comme perruquier. Il fréquente surtout le Jardin des Plantes et l'École des mines de Paris. Rappelé d’urgence par une lettre de sa mère, il retrouve ses affaires en mauvais état. Il redresse sa boutique tout en continuant à étudier le sous-sol du département, et augmenter sa collection. 
+En 1840, la création de la faculté des sciences de Rennes attire plusieurs professeurs qui accueillent Rouault avec bienveillance. La renommée de Rouault s'étend et les visites plus ou moins désintéressées de sa collection augmente.
+À partir de la fin de 1845 la situation se dégrade. Il tombe malade. Les exploitants des carrières qu’il avait explorées lui apprennent que les visites se font de plus en plus fréquentes et que certaines personnes sont sur les traces de ses découvertes. Rouault rédige alors un mémoire adressé à Félix Dujardin. Il est communiqué à la Société philomathique de Paris, qui en publie quelques extraits. Néanmoins, la Société géologique de France, à laquelle le mémoire avait été soumis, conseille à Rouault de se dessaisir de la propriété de ses découvertes au profit de personnes aptes à les utiliser.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marie_Rouault</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Rouault</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Notoriété</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1846, il est aidé par le général de Tournemine, alors en garnison à Rennes. En quelques mois, il va passer du statut de barbier jusqu'à l'Institut de France. En 1847, Rouault rejoint Paris où le général le conduit dans tous les endroits qui comptent. Il rencontre aussi François Arago. Via son protecteur, Rouault est inscrit à l’ordre du jour des séances de l’Académie. Le 18 décembre 1846, il lit son mémoire dans la salle des séances de l’Institut de France. Peu de temps après, il est reçu par acclamations à la Société géologique de France.
+Rouault atteint alors une renommée internationale, mais il est ruiné financièrement. Les problèmes matériels sont partiellement réglés en 1847, quand il devient pensionnaire de la ville de Rennes.
+Il reste alors quatre ans à Paris. En 1848, Rouault publie un second mémoire consacré à l’étude de Ogygia Brongniarti. À plusieurs reprises, de 1846 à 1848, la valeur de ses travaux est reconnue par l'Académie des sciences.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marie_Rouault</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Rouault</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Musée géologique de Rennes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En février 1853, il fait don de ses collections à la ville de Rennes. En mars 1853, le Musée géologique de Rennes est créé. Rouault en est le directeur.
+À partir de 1853, ses publications se font de plus en plus rares. En 1855, l'Académie des sciences lui attribue une subvention de 2000 francs. Il entre en conflit avec la ville de Rennes à partir de 1875 sur sa gestion du Musée géologique de Rennes.
+Malgré ses problèmes locaux, sa renommée internationale reste intacte. En septembre 1878, à l’issue du Congrès international de géologie de Paris, un document, signé par trente géologues demande que des moyens soient dégagés pour permettre au conservateur et fondateur du Musée géologique de la ville de Rennes de poursuivre ses recherches.
+Marie Rouault tombe malade en 1879, et meurt en 1881. 
+Une rue porte son nom à Rennes. Une des salles de géologie de l'Université de Rennes porte son nom.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marie_Rouault</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Rouault</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Henri Milne Edwards, (1847). Rapport sur des recherches paléontologiques faites en Bretagne et dans l’Anjou par M. Marie Rouault. Comptes rendus des séances de l’Académie des Sciences, XXIV, séance du 5 avril 1847, 4 p.
 Henri Milne Edwards,. (1848). Rapport sur un mémoire relatif aux Trilobites de la Bretagne par M. Marie Rouault. Comptes rendus des séances de l’Académie des Sciences, XXVII, séance du 14 août 1848, 3 p.
@@ -582,31 +741,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Marie_Rouault</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marie_Rouault</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Marie Rouault est l'auteur de :
 Mémoire sur les Trilobites du département d’Ille-et-Vilaine. Paris, in-8, 1846.
@@ -636,31 +797,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Marie_Rouault</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marie_Rouault</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Biographie, sur annales.org</t>
         </is>
